--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -69,10 +69,10 @@
     <t xml:space="preserve">5 tasks per day</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,7 +847,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1254,8 +1254,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1928,7 +1928,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2323,7 +2323,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2787,7 +2787,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3182,7 +3182,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3379,7 +3379,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -192,28 +198,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-15</t>
+    <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -225,7 +315,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,8 +350,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +375,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -315,7 +436,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,6 +505,22 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +555,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -434,7 +571,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -444,7 +581,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -569,7 +706,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -645,7 +782,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +865,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -763,17 +900,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -786,46 +923,562 @@
       <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>59</v>
+      <c r="A2" s="13" t="n">
+        <v>45641</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="18" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <v>45840</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>45642</v>
       </c>
+      <c r="F2" s="10" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
       <c r="E2" s="10" t="n">
+        <v>45642</v>
+      </c>
+      <c r="F2" s="10" t="n">
         <v>45840</v>
       </c>
+      <c r="G2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>45642</v>
+      </c>
       <c r="F2" s="10" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>45642</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="F2" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
+      <c r="G2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +1499,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1098,7 +1751,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1254,7 +1907,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1927,7 +2580,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2322,7 +2975,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2786,7 +3439,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3181,7 +3834,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3378,7 +4031,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -509,7 +509,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,7 +902,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1155,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1208,7 +1208,8 @@
         <v>45642</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45662</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0.6</v>
@@ -1408,7 +1409,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -961,7 +961,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1020,7 +1020,8 @@
         <v>45642</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45662</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>64</v>
@@ -1058,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1117,7 +1118,8 @@
         <v>45642</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45662</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>67</v>
@@ -1155,7 +1157,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1059,7 +1059,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1241,16 +1241,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,25 +1267,13 @@
         <v>58</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,28 +1286,14 @@
       <c r="D2" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>45642</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>45840</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -707,7 +707,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D3:D6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -782,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,29 +808,74 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
@@ -866,7 +911,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -903,7 +948,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="D3:D6 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -961,7 +1006,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D3:D6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,7 +1105,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D3:D6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1158,7 +1203,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D3:D6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1243,8 +1288,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D3:D6 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1315,7 +1360,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1386,7 +1431,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1477,7 +1522,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D3:D6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,7 +1774,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D3:D6 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1885,7 +1930,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D6 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2558,7 +2603,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D6 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2953,7 +2998,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D3:D6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3417,7 +3462,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D6 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3812,7 +3857,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D3:D6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4009,7 +4054,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D3:D6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -707,7 +707,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D3:D6 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,7 +783,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D6"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,7 +911,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="D3:D6 F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D3:D6 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D3:D6 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D3:D6 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D3:D6 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D3:D6 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D3:D6 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D6 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2603,7 +2603,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D6 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2998,7 +2998,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D3:D6 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3462,7 +3462,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="D3:D6 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3857,7 +3857,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D3:D6 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4054,7 +4054,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D3:D6 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -304,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -783,7 +787,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1514,6 +1518,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -784,171 +782,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45651</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -987,7 +820,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="18" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45840</v>
       </c>
     </row>
@@ -1002,7 +835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1101,7 +934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1199,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1285,7 +1118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1356,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1427,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1518,7 +1351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2663,401 +2496,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3517,402 +2955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4109,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4213,4 +3256,169 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>45651</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1358,7 +1358,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3393,7 +3393,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -200,10 +200,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -709,7 +715,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -782,17 +788,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -805,8 +811,11 @@
       <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,9 +826,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="18" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="18" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45840</v>
       </c>
@@ -843,7 +855,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -858,13 +870,13 @@
         <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>12</v>
@@ -873,19 +885,19 @@
         <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +918,10 @@
         <v>45662</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.3</v>
@@ -919,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -942,7 +954,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -953,16 +965,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>12</v>
@@ -971,19 +983,19 @@
         <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1016,10 @@
         <v>45662</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.3</v>
@@ -1017,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1040,7 +1052,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1051,16 +1063,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>12</v>
@@ -1069,13 +1081,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1126,7 +1138,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,25 +1149,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,7 +1181,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.9</v>
@@ -1197,7 +1209,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1208,25 +1220,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,10 +1252,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>4</v>
@@ -1268,7 +1280,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1281,34 +1293,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,16 +1334,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.5</v>
@@ -1358,8 +1370,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1370,19 +1382,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1430,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1670,7 +1682,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D1:D2 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1826,7 +1838,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2499,7 +2511,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2963,7 +2975,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3160,7 +3172,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3266,7 +3278,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="D1:D2 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3394,7 +3406,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -212,6 +213,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -221,6 +225,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -228,12 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -366,7 +370,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,19 +398,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -525,7 +523,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,7 +561,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -715,7 +713,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,31 +850,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>12</v>
@@ -884,53 +881,36 @@
       <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="10" t="n">
+        <f aca="false">misc!A2+1</f>
         <v>45642</v>
       </c>
       <c r="F2" s="10" t="n">
         <f aca="false">E2+20</f>
         <v>45662</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="20" t="b">
+      <c r="G2" s="20" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="20" t="b">
+      <c r="H2" s="20" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -951,86 +931,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>45642</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <f aca="false">E2+20</f>
-        <v>45662</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="3" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1049,74 +985,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>45642</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <f aca="false">E2+20</f>
-        <v>45662</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="20" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1135,16 +1038,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,41 +1055,11 @@
         <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="3" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1206,59 +1079,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="3" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1277,79 +1132,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="D2" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1368,46 +1185,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1430,7 +1302,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1682,7 +1554,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D1:D2 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,7 +1710,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2511,7 +2383,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2975,7 +2847,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3172,7 +3044,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3278,7 +3150,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="D1:D2 G12"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3406,7 +3278,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
+++ b/ampl-data-input-excel/03-fixed-hours-per-task/03-fixed-hours-per-task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">scip</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -713,7 +713,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -934,7 +934,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D1:D2 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1710,7 +1710,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2383,7 +2383,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3044,7 +3044,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3150,7 +3150,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="D1:D2 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3278,7 +3278,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
